--- a/s1cDNASample/s1cDNASample_3357.xlsx
+++ b/s1cDNASample/s1cDNASample_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58495571-D688-CA49-AFEC-0E3330A145A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD141A52-F7F0-7841-B469-846502C229CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
   <si>
     <t>rnaDate</t>
   </si>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B29 E2:E29"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -480,7 +480,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -503,7 +503,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
@@ -520,22 +520,22 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
@@ -549,7 +549,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -558,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -572,7 +572,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -589,22 +589,22 @@
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
@@ -681,22 +681,22 @@
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
@@ -825,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -857,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
@@ -894,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -926,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
@@ -963,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1064,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1087,32 +1087,9 @@
         <v>10</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/s1cDNASample/s1cDNASample_3357.xlsx
+++ b/s1cDNASample/s1cDNASample_3357.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD141A52-F7F0-7841-B469-846502C229CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D9E89C-D4E4-4743-ABF8-0D39EDAD803F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="11">
   <si>
     <t>rnaDate</t>
   </si>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -566,22 +566,22 @@
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -595,7 +595,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -618,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
@@ -658,22 +658,22 @@
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -719,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
@@ -825,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -857,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -871,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
@@ -894,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -903,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -926,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -949,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
@@ -963,7 +963,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>10</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
@@ -1009,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1018,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
@@ -1032,7 +1032,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
@@ -1055,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1064,32 +1064,9 @@
         <v>10</v>
       </c>
       <c r="F27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
